--- a/data/Checklist.xlsx
+++ b/data/Checklist.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="59">
   <si>
     <t>GSE</t>
   </si>
@@ -123,21 +123,12 @@
     <t>MAX</t>
   </si>
   <si>
-    <t>FLIGHT CTLS</t>
-  </si>
-  <si>
     <t>OFF</t>
   </si>
   <si>
     <t>TAXI CLNR</t>
   </si>
   <si>
-    <t>CABIN</t>
-  </si>
-  <si>
-    <t>CHIME</t>
-  </si>
-  <si>
     <t>TAKEOFF CLNR</t>
   </si>
   <si>
@@ -147,12 +138,6 @@
     <t>LANDING LT</t>
   </si>
   <si>
-    <t>FLT CTLS</t>
-  </si>
-  <si>
-    <t>CALIB</t>
-  </si>
-  <si>
     <t>SPOILERS</t>
   </si>
   <si>
@@ -171,22 +156,10 @@
     <t>CRUISE</t>
   </si>
   <si>
-    <t>TOD TIME</t>
-  </si>
-  <si>
-    <t>FUEL FLOW</t>
-  </si>
-  <si>
-    <t>CAM</t>
-  </si>
-  <si>
     <t>VNAV</t>
   </si>
   <si>
     <t>ARMED</t>
-  </si>
-  <si>
-    <t>ARRIVAL GATE</t>
   </si>
   <si>
     <t>FLAP SPDS</t>
@@ -669,7 +642,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>18</v>
@@ -691,10 +664,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -702,7 +675,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -713,10 +686,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
@@ -771,10 +744,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -782,10 +755,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -793,10 +766,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -804,10 +777,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
@@ -826,7 +799,7 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
@@ -877,10 +850,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -888,10 +861,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -899,10 +872,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -910,21 +883,21 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
+      <c r="A5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
@@ -932,21 +905,21 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>66</v>
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
@@ -954,10 +927,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
@@ -968,7 +941,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
@@ -976,10 +949,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>2</v>
@@ -1241,10 +1214,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -1252,22 +1225,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1321,10 +1288,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1332,10 +1299,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -1343,7 +1310,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -1353,23 +1320,11 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1426,7 +1381,7 @@
         <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1434,10 +1389,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -1445,44 +1400,38 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>47</v>
+    <row r="5" ht="13.5" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1529,10 +1478,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1543,41 +1492,23 @@
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1631,10 +1562,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1642,10 +1573,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -1653,7 +1584,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>18</v>
@@ -1663,10 +1594,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1674,23 +1605,11 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1748,7 +1667,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -1759,7 +1678,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>18</v>
